--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\المكتب\قاعدة بيانات القسم\student_lookup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{297F8961-955A-4165-A260-D16FF0A68593}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA99F179-6D79-4041-8C8B-C003930CFE4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="613">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="614">
   <si>
     <t>اسم الطالب</t>
   </si>
@@ -1862,6 +1862,9 @@
   </si>
   <si>
     <t>502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">القاعة الإمتحانية </t>
   </si>
 </sst>
 </file>
@@ -1890,7 +1893,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1913,13 +1916,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -2224,10 +2241,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D204"/>
+  <dimension ref="A1:E204"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="E2" sqref="E2:E204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2236,9 +2253,10 @@
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2251,8 +2269,11 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="2" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -2265,8 +2286,11 @@
       <c r="D2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -2279,8 +2303,11 @@
       <c r="D3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -2293,8 +2320,11 @@
       <c r="D4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -2307,8 +2337,11 @@
       <c r="D5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -2321,8 +2354,11 @@
       <c r="D6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -2335,8 +2371,11 @@
       <c r="D7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -2349,8 +2388,11 @@
       <c r="D8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -2363,8 +2405,11 @@
       <c r="D9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -2377,8 +2422,11 @@
       <c r="D10" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>31</v>
       </c>
@@ -2391,8 +2439,11 @@
       <c r="D11" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>34</v>
       </c>
@@ -2405,8 +2456,11 @@
       <c r="D12" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>37</v>
       </c>
@@ -2419,8 +2473,11 @@
       <c r="D13" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>40</v>
       </c>
@@ -2433,8 +2490,11 @@
       <c r="D14" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>43</v>
       </c>
@@ -2447,8 +2507,11 @@
       <c r="D15" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>46</v>
       </c>
@@ -2461,8 +2524,11 @@
       <c r="D16" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>49</v>
       </c>
@@ -2475,8 +2541,11 @@
       <c r="D17" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>52</v>
       </c>
@@ -2489,8 +2558,11 @@
       <c r="D18" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>55</v>
       </c>
@@ -2503,8 +2575,11 @@
       <c r="D19" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>58</v>
       </c>
@@ -2517,8 +2592,11 @@
       <c r="D20" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>61</v>
       </c>
@@ -2531,8 +2609,11 @@
       <c r="D21" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>64</v>
       </c>
@@ -2545,8 +2626,11 @@
       <c r="D22" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>67</v>
       </c>
@@ -2559,8 +2643,11 @@
       <c r="D23" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>70</v>
       </c>
@@ -2573,8 +2660,11 @@
       <c r="D24" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>73</v>
       </c>
@@ -2587,8 +2677,11 @@
       <c r="D25" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>76</v>
       </c>
@@ -2601,8 +2694,11 @@
       <c r="D26" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>79</v>
       </c>
@@ -2615,8 +2711,11 @@
       <c r="D27" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E27">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>82</v>
       </c>
@@ -2629,8 +2728,11 @@
       <c r="D28" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E28">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>85</v>
       </c>
@@ -2643,8 +2745,11 @@
       <c r="D29" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E29">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>88</v>
       </c>
@@ -2657,8 +2762,11 @@
       <c r="D30" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E30">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>91</v>
       </c>
@@ -2671,8 +2779,11 @@
       <c r="D31" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E31">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>94</v>
       </c>
@@ -2685,8 +2796,11 @@
       <c r="D32" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E32">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>97</v>
       </c>
@@ -2699,8 +2813,11 @@
       <c r="D33" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E33">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>100</v>
       </c>
@@ -2713,8 +2830,11 @@
       <c r="D34" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E34">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>103</v>
       </c>
@@ -2727,8 +2847,11 @@
       <c r="D35" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E35">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>106</v>
       </c>
@@ -2741,8 +2864,11 @@
       <c r="D36" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E36">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>109</v>
       </c>
@@ -2755,8 +2881,11 @@
       <c r="D37" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E37">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>112</v>
       </c>
@@ -2769,8 +2898,11 @@
       <c r="D38" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E38">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>115</v>
       </c>
@@ -2783,8 +2915,11 @@
       <c r="D39" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E39">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>119</v>
       </c>
@@ -2797,8 +2932,11 @@
       <c r="D40" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E40">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>122</v>
       </c>
@@ -2811,8 +2949,11 @@
       <c r="D41" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E41">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>125</v>
       </c>
@@ -2825,8 +2966,11 @@
       <c r="D42" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E42">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>128</v>
       </c>
@@ -2839,8 +2983,11 @@
       <c r="D43" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E43">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>131</v>
       </c>
@@ -2853,8 +3000,11 @@
       <c r="D44" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E44">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>134</v>
       </c>
@@ -2867,8 +3017,11 @@
       <c r="D45" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E45">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>137</v>
       </c>
@@ -2881,8 +3034,11 @@
       <c r="D46" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E46">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>140</v>
       </c>
@@ -2895,8 +3051,11 @@
       <c r="D47" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E47">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>143</v>
       </c>
@@ -2909,8 +3068,11 @@
       <c r="D48" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E48">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>146</v>
       </c>
@@ -2923,8 +3085,11 @@
       <c r="D49" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E49">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>149</v>
       </c>
@@ -2937,8 +3102,11 @@
       <c r="D50" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E50">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>152</v>
       </c>
@@ -2951,8 +3119,11 @@
       <c r="D51" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E51">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>155</v>
       </c>
@@ -2965,8 +3136,11 @@
       <c r="D52" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E52">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>158</v>
       </c>
@@ -2979,8 +3153,11 @@
       <c r="D53" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E53">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>161</v>
       </c>
@@ -2993,8 +3170,11 @@
       <c r="D54" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E54">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>164</v>
       </c>
@@ -3007,8 +3187,11 @@
       <c r="D55" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E55">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>167</v>
       </c>
@@ -3021,8 +3204,11 @@
       <c r="D56" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E56">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>170</v>
       </c>
@@ -3035,8 +3221,11 @@
       <c r="D57" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E57">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>173</v>
       </c>
@@ -3049,8 +3238,11 @@
       <c r="D58" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E58">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>176</v>
       </c>
@@ -3063,8 +3255,11 @@
       <c r="D59" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E59">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>179</v>
       </c>
@@ -3077,8 +3272,11 @@
       <c r="D60" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E60">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>182</v>
       </c>
@@ -3091,8 +3289,11 @@
       <c r="D61" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E61">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>185</v>
       </c>
@@ -3105,8 +3306,11 @@
       <c r="D62" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E62">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>188</v>
       </c>
@@ -3119,8 +3323,11 @@
       <c r="D63" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E63">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>191</v>
       </c>
@@ -3133,8 +3340,11 @@
       <c r="D64" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E64">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>194</v>
       </c>
@@ -3147,8 +3357,11 @@
       <c r="D65" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E65">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>197</v>
       </c>
@@ -3161,8 +3374,11 @@
       <c r="D66" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E66">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>200</v>
       </c>
@@ -3175,8 +3391,11 @@
       <c r="D67" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E67">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>203</v>
       </c>
@@ -3189,8 +3408,11 @@
       <c r="D68" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E68">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>206</v>
       </c>
@@ -3203,8 +3425,11 @@
       <c r="D69" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E69">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>209</v>
       </c>
@@ -3217,8 +3442,11 @@
       <c r="D70" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E70">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>212</v>
       </c>
@@ -3231,8 +3459,11 @@
       <c r="D71" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E71">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>215</v>
       </c>
@@ -3245,8 +3476,11 @@
       <c r="D72" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E72">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>218</v>
       </c>
@@ -3259,8 +3493,11 @@
       <c r="D73" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E73">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>221</v>
       </c>
@@ -3273,8 +3510,11 @@
       <c r="D74" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E74">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>224</v>
       </c>
@@ -3287,8 +3527,11 @@
       <c r="D75" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E75">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>227</v>
       </c>
@@ -3301,8 +3544,11 @@
       <c r="D76" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E76">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>231</v>
       </c>
@@ -3315,8 +3561,11 @@
       <c r="D77" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E77">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>234</v>
       </c>
@@ -3329,8 +3578,11 @@
       <c r="D78" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E78">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>237</v>
       </c>
@@ -3343,8 +3595,11 @@
       <c r="D79" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E79">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>240</v>
       </c>
@@ -3357,8 +3612,11 @@
       <c r="D80" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E80">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>243</v>
       </c>
@@ -3371,8 +3629,11 @@
       <c r="D81" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E81">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>246</v>
       </c>
@@ -3385,8 +3646,11 @@
       <c r="D82" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E82">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>249</v>
       </c>
@@ -3399,8 +3663,11 @@
       <c r="D83" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E83">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>252</v>
       </c>
@@ -3413,8 +3680,11 @@
       <c r="D84" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E84">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>255</v>
       </c>
@@ -3427,8 +3697,11 @@
       <c r="D85" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E85">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>258</v>
       </c>
@@ -3441,8 +3714,11 @@
       <c r="D86" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E86">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>261</v>
       </c>
@@ -3455,8 +3731,11 @@
       <c r="D87" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E87">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>264</v>
       </c>
@@ -3469,8 +3748,11 @@
       <c r="D88" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E88">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>267</v>
       </c>
@@ -3483,8 +3765,11 @@
       <c r="D89" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E89">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>270</v>
       </c>
@@ -3497,8 +3782,11 @@
       <c r="D90" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E90">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>273</v>
       </c>
@@ -3511,8 +3799,11 @@
       <c r="D91" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E91">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>276</v>
       </c>
@@ -3525,8 +3816,11 @@
       <c r="D92" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E92">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>279</v>
       </c>
@@ -3539,8 +3833,11 @@
       <c r="D93" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E93">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>282</v>
       </c>
@@ -3553,8 +3850,11 @@
       <c r="D94" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E94">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>285</v>
       </c>
@@ -3567,8 +3867,11 @@
       <c r="D95" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E95">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>288</v>
       </c>
@@ -3581,8 +3884,11 @@
       <c r="D96" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E96">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>291</v>
       </c>
@@ -3595,8 +3901,11 @@
       <c r="D97" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E97">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>294</v>
       </c>
@@ -3609,8 +3918,11 @@
       <c r="D98" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E98">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>297</v>
       </c>
@@ -3623,8 +3935,11 @@
       <c r="D99" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E99">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>300</v>
       </c>
@@ -3637,8 +3952,11 @@
       <c r="D100" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E100">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>302</v>
       </c>
@@ -3651,8 +3969,11 @@
       <c r="D101" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E101">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>305</v>
       </c>
@@ -3665,8 +3986,11 @@
       <c r="D102" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E102">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>308</v>
       </c>
@@ -3679,8 +4003,11 @@
       <c r="D103" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E103">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>311</v>
       </c>
@@ -3693,8 +4020,11 @@
       <c r="D104" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E104">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>314</v>
       </c>
@@ -3707,8 +4037,11 @@
       <c r="D105" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E105">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>317</v>
       </c>
@@ -3721,8 +4054,11 @@
       <c r="D106" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E106">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>320</v>
       </c>
@@ -3735,8 +4071,11 @@
       <c r="D107" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E107">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>323</v>
       </c>
@@ -3749,8 +4088,11 @@
       <c r="D108" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E108">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>326</v>
       </c>
@@ -3763,8 +4105,11 @@
       <c r="D109" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E109">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>329</v>
       </c>
@@ -3777,8 +4122,11 @@
       <c r="D110" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E110">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>332</v>
       </c>
@@ -3791,8 +4139,11 @@
       <c r="D111" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E111">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>335</v>
       </c>
@@ -3805,8 +4156,11 @@
       <c r="D112" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E112">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>338</v>
       </c>
@@ -3819,8 +4173,11 @@
       <c r="D113" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E113">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>341</v>
       </c>
@@ -3833,8 +4190,11 @@
       <c r="D114" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E114">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>344</v>
       </c>
@@ -3847,8 +4207,11 @@
       <c r="D115" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E115">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>347</v>
       </c>
@@ -3861,8 +4224,11 @@
       <c r="D116" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E116">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>350</v>
       </c>
@@ -3875,8 +4241,11 @@
       <c r="D117" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E117">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>353</v>
       </c>
@@ -3889,8 +4258,11 @@
       <c r="D118" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E118">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>356</v>
       </c>
@@ -3903,8 +4275,11 @@
       <c r="D119" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E119">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>359</v>
       </c>
@@ -3917,8 +4292,11 @@
       <c r="D120" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E120">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>362</v>
       </c>
@@ -3931,8 +4309,11 @@
       <c r="D121" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E121">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>365</v>
       </c>
@@ -3945,8 +4326,11 @@
       <c r="D122" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E122">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>368</v>
       </c>
@@ -3959,8 +4343,11 @@
       <c r="D123" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E123">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>371</v>
       </c>
@@ -3973,8 +4360,11 @@
       <c r="D124" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E124">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>374</v>
       </c>
@@ -3987,8 +4377,11 @@
       <c r="D125" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E125">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>377</v>
       </c>
@@ -4001,8 +4394,11 @@
       <c r="D126" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E126">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>380</v>
       </c>
@@ -4015,8 +4411,11 @@
       <c r="D127" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E127">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>383</v>
       </c>
@@ -4029,8 +4428,11 @@
       <c r="D128" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E128">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>386</v>
       </c>
@@ -4043,8 +4445,11 @@
       <c r="D129" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E129">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>389</v>
       </c>
@@ -4057,8 +4462,11 @@
       <c r="D130" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E130">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>392</v>
       </c>
@@ -4071,8 +4479,11 @@
       <c r="D131" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E131">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>395</v>
       </c>
@@ -4085,8 +4496,11 @@
       <c r="D132" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E132">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>398</v>
       </c>
@@ -4099,8 +4513,11 @@
       <c r="D133" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E133">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>401</v>
       </c>
@@ -4113,8 +4530,11 @@
       <c r="D134" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E134">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>404</v>
       </c>
@@ -4127,8 +4547,11 @@
       <c r="D135" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E135">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>407</v>
       </c>
@@ -4141,8 +4564,11 @@
       <c r="D136" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E136">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>410</v>
       </c>
@@ -4155,8 +4581,11 @@
       <c r="D137" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E137">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>413</v>
       </c>
@@ -4169,8 +4598,11 @@
       <c r="D138" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E138">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>416</v>
       </c>
@@ -4183,8 +4615,11 @@
       <c r="D139" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E139">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>419</v>
       </c>
@@ -4197,8 +4632,11 @@
       <c r="D140" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E140">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>422</v>
       </c>
@@ -4211,8 +4649,11 @@
       <c r="D141" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E141">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>425</v>
       </c>
@@ -4225,8 +4666,11 @@
       <c r="D142" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E142">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>428</v>
       </c>
@@ -4239,8 +4683,11 @@
       <c r="D143" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E143">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>431</v>
       </c>
@@ -4253,8 +4700,11 @@
       <c r="D144" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E144">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>434</v>
       </c>
@@ -4267,8 +4717,11 @@
       <c r="D145" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E145">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>437</v>
       </c>
@@ -4281,8 +4734,11 @@
       <c r="D146" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E146">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>440</v>
       </c>
@@ -4295,8 +4751,11 @@
       <c r="D147" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E147">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>443</v>
       </c>
@@ -4309,8 +4768,11 @@
       <c r="D148" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E148">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>446</v>
       </c>
@@ -4323,8 +4785,11 @@
       <c r="D149" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E149">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>449</v>
       </c>
@@ -4337,8 +4802,11 @@
       <c r="D150" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E150">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>452</v>
       </c>
@@ -4351,8 +4819,11 @@
       <c r="D151" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E151">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>455</v>
       </c>
@@ -4365,8 +4836,11 @@
       <c r="D152" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E152">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>458</v>
       </c>
@@ -4379,8 +4853,11 @@
       <c r="D153" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E153">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>461</v>
       </c>
@@ -4393,8 +4870,11 @@
       <c r="D154" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E154">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>464</v>
       </c>
@@ -4407,8 +4887,11 @@
       <c r="D155" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E155">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>467</v>
       </c>
@@ -4421,8 +4904,11 @@
       <c r="D156" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E156">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>470</v>
       </c>
@@ -4435,8 +4921,11 @@
       <c r="D157" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E157">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>473</v>
       </c>
@@ -4449,8 +4938,11 @@
       <c r="D158" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E158">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>476</v>
       </c>
@@ -4463,8 +4955,11 @@
       <c r="D159" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E159">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>479</v>
       </c>
@@ -4477,8 +4972,11 @@
       <c r="D160" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E160">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>482</v>
       </c>
@@ -4491,8 +4989,11 @@
       <c r="D161" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E161">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>485</v>
       </c>
@@ -4505,8 +5006,11 @@
       <c r="D162" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E162">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>488</v>
       </c>
@@ -4519,8 +5023,11 @@
       <c r="D163" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E163">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>491</v>
       </c>
@@ -4533,8 +5040,11 @@
       <c r="D164" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E164">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>494</v>
       </c>
@@ -4547,8 +5057,11 @@
       <c r="D165" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E165">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>497</v>
       </c>
@@ -4561,8 +5074,11 @@
       <c r="D166" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E166">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>500</v>
       </c>
@@ -4575,8 +5091,11 @@
       <c r="D167" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E167">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>503</v>
       </c>
@@ -4589,8 +5108,11 @@
       <c r="D168" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E168">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>506</v>
       </c>
@@ -4603,8 +5125,11 @@
       <c r="D169" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E169">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>509</v>
       </c>
@@ -4617,8 +5142,11 @@
       <c r="D170" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E170">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>512</v>
       </c>
@@ -4631,8 +5159,11 @@
       <c r="D171" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E171">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>514</v>
       </c>
@@ -4645,8 +5176,11 @@
       <c r="D172" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E172">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>517</v>
       </c>
@@ -4659,8 +5193,11 @@
       <c r="D173" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E173">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>520</v>
       </c>
@@ -4673,8 +5210,11 @@
       <c r="D174" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E174">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>523</v>
       </c>
@@ -4687,8 +5227,11 @@
       <c r="D175" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E175">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>526</v>
       </c>
@@ -4701,8 +5244,11 @@
       <c r="D176" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E176">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>529</v>
       </c>
@@ -4715,8 +5261,11 @@
       <c r="D177" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E177">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>532</v>
       </c>
@@ -4729,8 +5278,11 @@
       <c r="D178" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E178">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>535</v>
       </c>
@@ -4743,8 +5295,11 @@
       <c r="D179" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E179">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>538</v>
       </c>
@@ -4757,8 +5312,11 @@
       <c r="D180" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E180">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>541</v>
       </c>
@@ -4771,8 +5329,11 @@
       <c r="D181" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E181">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>544</v>
       </c>
@@ -4785,8 +5346,11 @@
       <c r="D182" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E182">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>547</v>
       </c>
@@ -4799,8 +5363,11 @@
       <c r="D183" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E183">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>550</v>
       </c>
@@ -4813,8 +5380,11 @@
       <c r="D184" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E184">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>553</v>
       </c>
@@ -4827,8 +5397,11 @@
       <c r="D185" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E185">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>556</v>
       </c>
@@ -4841,8 +5414,11 @@
       <c r="D186" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E186">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>559</v>
       </c>
@@ -4855,8 +5431,11 @@
       <c r="D187" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E187">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>562</v>
       </c>
@@ -4869,8 +5448,11 @@
       <c r="D188" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E188">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>565</v>
       </c>
@@ -4883,8 +5465,11 @@
       <c r="D189" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E189">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>568</v>
       </c>
@@ -4897,8 +5482,11 @@
       <c r="D190" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E190">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>571</v>
       </c>
@@ -4911,8 +5499,11 @@
       <c r="D191" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E191">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>574</v>
       </c>
@@ -4925,8 +5516,11 @@
       <c r="D192" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E192">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>577</v>
       </c>
@@ -4939,8 +5533,11 @@
       <c r="D193" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E193">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>580</v>
       </c>
@@ -4953,8 +5550,11 @@
       <c r="D194" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E194">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>583</v>
       </c>
@@ -4967,8 +5567,11 @@
       <c r="D195" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E195">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>586</v>
       </c>
@@ -4981,8 +5584,11 @@
       <c r="D196" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E196">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>589</v>
       </c>
@@ -4995,8 +5601,11 @@
       <c r="D197" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E197">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>592</v>
       </c>
@@ -5009,8 +5618,11 @@
       <c r="D198" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E198">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>595</v>
       </c>
@@ -5023,8 +5635,11 @@
       <c r="D199" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E199">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>598</v>
       </c>
@@ -5037,8 +5652,11 @@
       <c r="D200" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E200">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>601</v>
       </c>
@@ -5051,8 +5669,11 @@
       <c r="D201" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E201">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>604</v>
       </c>
@@ -5065,8 +5686,11 @@
       <c r="D202" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E202">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>607</v>
       </c>
@@ -5079,8 +5703,11 @@
       <c r="D203" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E203">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>610</v>
       </c>
@@ -5092,6 +5719,9 @@
       </c>
       <c r="D204" t="s">
         <v>230</v>
+      </c>
+      <c r="E204">
+        <v>301</v>
       </c>
     </row>
   </sheetData>
